--- a/Advanced Excel/Sales_data(Udaanous).xlsx
+++ b/Advanced Excel/Sales_data(Udaanous).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bharat Digital\Excel\Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A164002-BAC5-454A-A36B-0D2E2358979D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B00539-36F0-4D10-BEC5-090F75CCFD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -622,7 +622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -631,15 +631,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,7 +670,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Copy of sales_data(1).xlsx]Region_Sales!PivotTable2</c:name>
+    <c:name>[Sales_data(Udaanous).xlsx]Region_Sales!PivotTable2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -786,7 +785,7 @@
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -827,6 +826,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Region_Sales!$A$4:$A$9</c:f>
@@ -994,37 +1050,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1072,7 +1097,6 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -1098,7 +1122,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Copy of sales_data(1).xlsx]Product-wise_Units!PivotTable2</c:name>
+    <c:name>[Sales_data(Udaanous).xlsx]Product-wise_Units!PivotTable2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1108,27 +1132,13 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:sysClr>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1136,24 +1146,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
+              <a:rPr lang="en-IN"/>
               <a:t>PRODUCT-WISE uNITS</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-            </a:endParaRPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1169,27 +1165,13 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:sysClr>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1208,24 +1190,16 @@
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
-          <a:scene3d>
-            <a:camera prst="orthographicFront"/>
-            <a:lightRig rig="brightRoom" dir="t"/>
-          </a:scene3d>
-          <a:sp3d prstMaterial="flat">
-            <a:bevelT w="50800" h="101600" prst="angle"/>
-            <a:contourClr>
-              <a:srgbClr val="000000"/>
-            </a:contourClr>
-          </a:sp3d>
         </c:spPr>
         <c:marker>
           <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:size val="5"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1243,9 +1217,12 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1256,6 +1233,316 @@
             </a:p>
           </c:txPr>
           <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="2.5467502998404803E-2"/>
+              <c:y val="5.5065032705296134E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-2.6436597075277825E-3"/>
+              <c:y val="-1.9746073097142002E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="9.8016140047857941E-2"/>
+              <c:y val="-2.4871863455963681E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-5.2845063698394939E-4"/>
+              <c:y val="-7.612286649943175E-3"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-4.2287705003181776E-2"/>
+              <c:y val="5.4659214954597704E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1293,21 +1580,18 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4AB3-44AA-8F46-45B2AE2C776D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1316,21 +1600,18 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4AB3-44AA-8F46-45B2AE2C776D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1339,21 +1620,18 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4AB3-44AA-8F46-45B2AE2C776D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1362,21 +1640,18 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-4AB3-44AA-8F46-45B2AE2C776D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1385,23 +1660,130 @@
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-4AB3-44AA-8F46-45B2AE2C776D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.5467502998404803E-2"/>
+                  <c:y val="5.5065032705296134E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-4AB3-44AA-8F46-45B2AE2C776D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.6436597075277825E-3"/>
+                  <c:y val="-1.9746073097142002E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-4AB3-44AA-8F46-45B2AE2C776D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.8016140047857941E-2"/>
+                  <c:y val="-2.4871863455963681E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-4AB3-44AA-8F46-45B2AE2C776D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2845063698394939E-4"/>
+                  <c:y val="-7.612286649943175E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-4AB3-44AA-8F46-45B2AE2C776D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.2287705003181776E-2"/>
+                  <c:y val="5.4659214954597704E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-4AB3-44AA-8F46-45B2AE2C776D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1416,9 +1798,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1631,7 +2016,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Copy of sales_data(1).xlsx]Dates_Sales!PivotTable2</c:name>
+    <c:name>[Sales_data(Udaanous).xlsx]Dates_Sales!PivotTable2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2804,37 +3189,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2882,7 +3236,6 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -2908,7 +3261,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Copy of sales_data(1).xlsx]Region_Sales!PivotTable2</c:name>
+    <c:name>[Sales_data(Udaanous).xlsx]Region_Sales!PivotTable2</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -3127,7 +3480,7 @@
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -3168,6 +3521,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Region_Sales!$A$4:$A$9</c:f>
@@ -3335,37 +3745,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3413,7 +3792,6 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -3439,7 +3817,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Copy of sales_data(1).xlsx]Product-wise_Units!PivotTable2</c:name>
+    <c:name>[Sales_data(Udaanous).xlsx]Product-wise_Units!PivotTable2</c:name>
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
@@ -3450,7 +3828,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3464,13 +3842,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
-              <a:t>PRODUCT-WISE</a:t>
+              <a:t>PRODUCT-WISE UNITS</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" baseline="0"/>
-              <a:t> uNITS</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-IN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3487,7 +3860,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3499,7 +3872,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3507,28 +3880,67 @@
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
-          <a:scene3d>
-            <a:camera prst="orthographicFront"/>
-            <a:lightRig rig="brightRoom" dir="t"/>
-          </a:scene3d>
-          <a:sp3d prstMaterial="flat">
-            <a:bevelT w="50800" h="101600" prst="angle"/>
-            <a:contourClr>
-              <a:srgbClr val="000000"/>
-            </a:contourClr>
-          </a:sp3d>
         </c:spPr>
         <c:marker>
           <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:size val="5"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3546,247 +3958,12 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:scene3d>
-            <a:camera prst="orthographicFront"/>
-            <a:lightRig rig="brightRoom" dir="t"/>
-          </a:scene3d>
-          <a:sp3d prstMaterial="flat">
-            <a:bevelT w="50800" h="101600" prst="angle"/>
-            <a:contourClr>
-              <a:srgbClr val="000000"/>
-            </a:contourClr>
-          </a:sp3d>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:scene3d>
-            <a:camera prst="orthographicFront"/>
-            <a:lightRig rig="brightRoom" dir="t"/>
-          </a:scene3d>
-          <a:sp3d prstMaterial="flat">
-            <a:bevelT w="50800" h="101600" prst="angle"/>
-            <a:contourClr>
-              <a:srgbClr val="000000"/>
-            </a:contourClr>
-          </a:sp3d>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:scene3d>
-            <a:camera prst="orthographicFront"/>
-            <a:lightRig rig="brightRoom" dir="t"/>
-          </a:scene3d>
-          <a:sp3d prstMaterial="flat">
-            <a:bevelT w="50800" h="101600" prst="angle"/>
-            <a:contourClr>
-              <a:srgbClr val="000000"/>
-            </a:contourClr>
-          </a:sp3d>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:scene3d>
-            <a:camera prst="orthographicFront"/>
-            <a:lightRig rig="brightRoom" dir="t"/>
-          </a:scene3d>
-          <a:sp3d prstMaterial="flat">
-            <a:bevelT w="50800" h="101600" prst="angle"/>
-            <a:contourClr>
-              <a:srgbClr val="000000"/>
-            </a:contourClr>
-          </a:sp3d>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="5"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:scene3d>
-            <a:camera prst="orthographicFront"/>
-            <a:lightRig rig="brightRoom" dir="t"/>
-          </a:scene3d>
-          <a:sp3d prstMaterial="flat">
-            <a:bevelT w="50800" h="101600" prst="angle"/>
-            <a:contourClr>
-              <a:srgbClr val="000000"/>
-            </a:contourClr>
-          </a:sp3d>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="6"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:scene3d>
-            <a:camera prst="orthographicFront"/>
-            <a:lightRig rig="brightRoom" dir="t"/>
-          </a:scene3d>
-          <a:sp3d prstMaterial="flat">
-            <a:bevelT w="50800" h="101600" prst="angle"/>
-            <a:contourClr>
-              <a:srgbClr val="000000"/>
-            </a:contourClr>
-          </a:sp3d>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="7"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:scene3d>
-            <a:camera prst="orthographicFront"/>
-            <a:lightRig rig="brightRoom" dir="t"/>
-          </a:scene3d>
-          <a:sp3d prstMaterial="flat">
-            <a:bevelT w="50800" h="101600" prst="angle"/>
-            <a:contourClr>
-              <a:srgbClr val="000000"/>
-            </a:contourClr>
-          </a:sp3d>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3814,109 +3991,309 @@
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
-          <a:scene3d>
-            <a:camera prst="orthographicFront"/>
-            <a:lightRig rig="brightRoom" dir="t"/>
-          </a:scene3d>
-          <a:sp3d prstMaterial="flat">
-            <a:bevelT w="50800" h="101600" prst="angle"/>
-            <a:contourClr>
-              <a:srgbClr val="000000"/>
-            </a:contourClr>
-          </a:sp3d>
         </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="2.5467502998404803E-2"/>
+              <c:y val="9.1599802578700706E-3"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="9"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
-          <a:scene3d>
-            <a:camera prst="orthographicFront"/>
-            <a:lightRig rig="brightRoom" dir="t"/>
-          </a:scene3d>
-          <a:sp3d prstMaterial="flat">
-            <a:bevelT w="50800" h="101600" prst="angle"/>
-            <a:contourClr>
-              <a:srgbClr val="000000"/>
-            </a:contourClr>
-          </a:sp3d>
         </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="5.0118419156998661E-3"/>
+              <c:y val="2.6158979350284137E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="10"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent3"/>
           </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
-          <a:scene3d>
-            <a:camera prst="orthographicFront"/>
-            <a:lightRig rig="brightRoom" dir="t"/>
-          </a:scene3d>
-          <a:sp3d prstMaterial="flat">
-            <a:bevelT w="50800" h="101600" prst="angle"/>
-            <a:contourClr>
-              <a:srgbClr val="000000"/>
-            </a:contourClr>
-          </a:sp3d>
         </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="0.11332714329431295"/>
+              <c:y val="-4.5737796386611893E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="11"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent4"/>
           </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
-          <a:scene3d>
-            <a:camera prst="orthographicFront"/>
-            <a:lightRig rig="brightRoom" dir="t"/>
-          </a:scene3d>
-          <a:sp3d prstMaterial="flat">
-            <a:bevelT w="50800" h="101600" prst="angle"/>
-            <a:contourClr>
-              <a:srgbClr val="000000"/>
-            </a:contourClr>
-          </a:sp3d>
         </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-8.1839522602115047E-3"/>
+              <c:y val="-2.4305032994461819E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="12"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent5"/>
           </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
-          <a:scene3d>
-            <a:camera prst="orthographicFront"/>
-            <a:lightRig rig="brightRoom" dir="t"/>
-          </a:scene3d>
-          <a:sp3d prstMaterial="flat">
-            <a:bevelT w="50800" h="101600" prst="angle"/>
-            <a:contourClr>
-              <a:srgbClr val="000000"/>
-            </a:contourClr>
-          </a:sp3d>
         </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-2.4424867882317458E-2"/>
+              <c:y val="2.5446908851690205E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -3944,20 +4321,12 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3972,20 +4341,12 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4000,20 +4361,12 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4028,20 +4381,12 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4056,20 +4401,12 @@
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4078,6 +4415,116 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.5467502998404803E-2"/>
+                  <c:y val="9.1599802578700706E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-245F-4F1D-AC18-4C9A73F97ADB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.0118419156998661E-3"/>
+                  <c:y val="2.6158979350284137E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-245F-4F1D-AC18-4C9A73F97ADB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11332714329431295"/>
+                  <c:y val="-4.5737796386611893E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-245F-4F1D-AC18-4C9A73F97ADB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.1839522602115047E-3"/>
+                  <c:y val="-2.4305032994461819E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-245F-4F1D-AC18-4C9A73F97ADB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.4424867882317458E-2"/>
+                  <c:y val="2.5446908851690205E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-245F-4F1D-AC18-4C9A73F97ADB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -4092,9 +4539,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4307,7 +4757,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Copy of sales_data(1).xlsx]Dates_Sales!PivotTable2</c:name>
+    <c:name>[Sales_data(Udaanous).xlsx]Dates_Sales!PivotTable2</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -5568,37 +6018,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -5646,7 +6065,6 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -6402,7 +6820,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6413,7 +6831,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -6425,6 +6843,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -6455,9 +6884,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -6489,7 +6921,7 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -6497,24 +6929,16 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:scene3d>
-        <a:camera prst="orthographicFront"/>
-        <a:lightRig rig="brightRoom" dir="t"/>
-      </a:scene3d>
-      <a:sp3d prstMaterial="flat">
-        <a:bevelT w="50800" h="101600" prst="angle"/>
-        <a:contourClr>
-          <a:srgbClr val="000000"/>
-        </a:contourClr>
-      </a:sp3d>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -6522,10 +6946,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="19050">
+      <a:ln w="25400">
         <a:solidFill>
           <a:schemeClr val="lt1"/>
         </a:solidFill>
@@ -6551,8 +6972,10 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -6560,17 +6983,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -6835,7 +7255,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -6851,7 +7271,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -7938,7 +8358,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7949,7 +8369,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -7961,6 +8381,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -7991,9 +8422,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -8025,7 +8459,7 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -8033,24 +8467,16 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:scene3d>
-        <a:camera prst="orthographicFront"/>
-        <a:lightRig rig="brightRoom" dir="t"/>
-      </a:scene3d>
-      <a:sp3d prstMaterial="flat">
-        <a:bevelT w="50800" h="101600" prst="angle"/>
-        <a:contourClr>
-          <a:srgbClr val="000000"/>
-        </a:contourClr>
-      </a:sp3d>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -8058,10 +8484,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="19050">
+      <a:ln w="25400">
         <a:solidFill>
           <a:schemeClr val="lt1"/>
         </a:solidFill>
@@ -8087,8 +8510,10 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -8096,17 +8521,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -8371,7 +8793,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -8387,7 +8809,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -10982,7 +11404,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C3DF6C2D-94E3-4A80-880F-D9D6C94B1B6D}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C3DF6C2D-94E3-4A80-880F-D9D6C94B1B6D}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="6">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -11063,7 +11485,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3B586746-8D54-4EAD-9714-B18B8C576F67}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3B586746-8D54-4EAD-9714-B18B8C576F67}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -11120,7 +11542,7 @@
   <dataFields count="1">
     <dataField name="Sum of Units Sold" fld="4" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
-  <chartFormats count="7">
+  <chartFormats count="12">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -11199,6 +11621,66 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -11213,7 +11695,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7E2A414E-7354-4E08-B95A-A7BC138F3801}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7E2A414E-7354-4E08-B95A-A7BC138F3801}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:B146" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -12283,12 +12765,12 @@
       <c r="F6">
         <v>200</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="5">
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="4">
         <f>SUM(F2:F198)</f>
         <v>51402.301999999996</v>
       </c>
@@ -12332,12 +12814,12 @@
       <c r="F8">
         <v>200</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="6">
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="5">
         <f>SUM(E2:E198)</f>
         <v>5244</v>
       </c>
@@ -12385,16 +12867,16 @@
       <c r="F10">
         <v>200</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="5">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="4">
         <f>SUMIF(C:C,M10,F:F)</f>
         <v>14193.015999999998</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="6" t="s">
         <v>155</v>
       </c>
     </row>
@@ -12438,16 +12920,16 @@
         <f>274.418</f>
         <v>274.41800000000001</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="5">
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="4">
         <f>SUMIF(D:D,M12,F:F)</f>
         <v>9772.0899999999983</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="6" t="s">
         <v>157</v>
       </c>
     </row>
@@ -16252,7 +16734,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>166</v>
       </c>
       <c r="B3" t="s">
@@ -16263,7 +16745,7 @@
       <c r="A4" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4">
         <v>14193.015999999998</v>
       </c>
     </row>
@@ -16271,7 +16753,7 @@
       <c r="A5" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5">
         <v>8420.9259999999995</v>
       </c>
     </row>
@@ -16279,7 +16761,7 @@
       <c r="A6" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6">
         <v>11767.433999999999</v>
       </c>
     </row>
@@ -16287,7 +16769,7 @@
       <c r="A7" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7">
         <v>9272.09</v>
       </c>
     </row>
@@ -16295,7 +16777,7 @@
       <c r="A8" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8">
         <v>7748.8359999999993</v>
       </c>
     </row>
@@ -16303,7 +16785,7 @@
       <c r="A9" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9">
         <v>51402.301999999996</v>
       </c>
     </row>
@@ -16317,8 +16799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32395362-3539-4898-90D9-B88E7485217F}">
   <dimension ref="A3:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16328,7 +16810,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>166</v>
       </c>
       <c r="B3" t="s">
@@ -16394,7 +16876,7 @@
   <dimension ref="A3:B146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16405,7 +16887,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>166</v>
       </c>
       <c r="B3" t="s">
@@ -16416,7 +16898,7 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4">
         <v>574.41800000000001</v>
       </c>
     </row>
@@ -16424,7 +16906,7 @@
       <c r="A5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5">
         <v>500</v>
       </c>
     </row>
@@ -16432,7 +16914,7 @@
       <c r="A6" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6">
         <v>500</v>
       </c>
     </row>
@@ -16440,7 +16922,7 @@
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7">
         <v>600</v>
       </c>
     </row>
@@ -16448,7 +16930,7 @@
       <c r="A8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8">
         <v>700</v>
       </c>
     </row>
@@ -16456,7 +16938,7 @@
       <c r="A9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9">
         <v>274.41800000000001</v>
       </c>
     </row>
@@ -16464,7 +16946,7 @@
       <c r="A10" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10">
         <v>200</v>
       </c>
     </row>
@@ -16472,7 +16954,7 @@
       <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11">
         <v>200</v>
       </c>
     </row>
@@ -16480,7 +16962,7 @@
       <c r="A12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12">
         <v>274.41800000000001</v>
       </c>
     </row>
@@ -16488,7 +16970,7 @@
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13">
         <v>674.41800000000001</v>
       </c>
     </row>
@@ -16496,7 +16978,7 @@
       <c r="A14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14">
         <v>500</v>
       </c>
     </row>
@@ -16504,7 +16986,7 @@
       <c r="A15" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15">
         <v>374.41800000000001</v>
       </c>
     </row>
@@ -16512,7 +16994,7 @@
       <c r="A16" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16">
         <v>200</v>
       </c>
     </row>
@@ -16520,7 +17002,7 @@
       <c r="A17" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17">
         <v>300</v>
       </c>
     </row>
@@ -16528,7 +17010,7 @@
       <c r="A18" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18">
         <v>300</v>
       </c>
     </row>
@@ -16536,7 +17018,7 @@
       <c r="A19" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19">
         <v>274.41800000000001</v>
       </c>
     </row>
@@ -16544,7 +17026,7 @@
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20">
         <v>300</v>
       </c>
     </row>
@@ -16552,7 +17034,7 @@
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21">
         <v>200</v>
       </c>
     </row>
@@ -16560,7 +17042,7 @@
       <c r="A22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22">
         <v>674.41800000000001</v>
       </c>
     </row>
@@ -16568,7 +17050,7 @@
       <c r="A23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23">
         <v>374.41800000000001</v>
       </c>
     </row>
@@ -16576,7 +17058,7 @@
       <c r="A24" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24">
         <v>300</v>
       </c>
     </row>
@@ -16584,7 +17066,7 @@
       <c r="A25" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25">
         <v>300</v>
       </c>
     </row>
@@ -16592,7 +17074,7 @@
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26">
         <v>600</v>
       </c>
     </row>
@@ -16600,7 +17082,7 @@
       <c r="A27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27">
         <v>574.41800000000001</v>
       </c>
     </row>
@@ -16608,7 +17090,7 @@
       <c r="A28" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28">
         <v>774.41800000000001</v>
       </c>
     </row>
@@ -16616,7 +17098,7 @@
       <c r="A29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29">
         <v>200</v>
       </c>
     </row>
@@ -16624,7 +17106,7 @@
       <c r="A30" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30">
         <v>100</v>
       </c>
     </row>
@@ -16632,7 +17114,7 @@
       <c r="A31" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31">
         <v>100</v>
       </c>
     </row>
@@ -16640,7 +17122,7 @@
       <c r="A32" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32">
         <v>300</v>
       </c>
     </row>
@@ -16648,7 +17130,7 @@
       <c r="A33" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33">
         <v>700</v>
       </c>
     </row>
@@ -16656,7 +17138,7 @@
       <c r="A34" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34">
         <v>300</v>
       </c>
     </row>
@@ -16664,7 +17146,7 @@
       <c r="A35" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35">
         <v>300</v>
       </c>
     </row>
@@ -16672,7 +17154,7 @@
       <c r="A36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36">
         <v>400</v>
       </c>
     </row>
@@ -16680,7 +17162,7 @@
       <c r="A37" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37">
         <v>600</v>
       </c>
     </row>
@@ -16688,7 +17170,7 @@
       <c r="A38" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38">
         <v>200</v>
       </c>
     </row>
@@ -16696,7 +17178,7 @@
       <c r="A39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39">
         <v>748.83600000000001</v>
       </c>
     </row>
@@ -16704,7 +17186,7 @@
       <c r="A40" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40">
         <v>274.41800000000001</v>
       </c>
     </row>
@@ -16712,7 +17194,7 @@
       <c r="A41" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41">
         <v>100</v>
       </c>
     </row>
@@ -16720,7 +17202,7 @@
       <c r="A42" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42">
         <v>274.41800000000001</v>
       </c>
     </row>
@@ -16728,7 +17210,7 @@
       <c r="A43" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43">
         <v>200</v>
       </c>
     </row>
@@ -16736,7 +17218,7 @@
       <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44">
         <v>374.41800000000001</v>
       </c>
     </row>
@@ -16744,7 +17226,7 @@
       <c r="A45" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45">
         <v>300</v>
       </c>
     </row>
@@ -16752,7 +17234,7 @@
       <c r="A46" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46">
         <v>774.41800000000001</v>
       </c>
     </row>
@@ -16760,7 +17242,7 @@
       <c r="A47" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47">
         <v>500</v>
       </c>
     </row>
@@ -16768,7 +17250,7 @@
       <c r="A48" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48">
         <v>100</v>
       </c>
     </row>
@@ -16776,7 +17258,7 @@
       <c r="A49" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49">
         <v>274.41800000000001</v>
       </c>
     </row>
@@ -16784,7 +17266,7 @@
       <c r="A50" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50">
         <v>200</v>
       </c>
     </row>
@@ -16792,7 +17274,7 @@
       <c r="A51" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51">
         <v>200</v>
       </c>
     </row>
@@ -16800,7 +17282,7 @@
       <c r="A52" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52">
         <v>200</v>
       </c>
     </row>
@@ -16808,7 +17290,7 @@
       <c r="A53" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53">
         <v>500</v>
       </c>
     </row>
@@ -16816,7 +17298,7 @@
       <c r="A54" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54">
         <v>100</v>
       </c>
     </row>
@@ -16824,7 +17306,7 @@
       <c r="A55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55">
         <v>200</v>
       </c>
     </row>
@@ -16832,7 +17314,7 @@
       <c r="A56" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56">
         <v>100</v>
       </c>
     </row>
@@ -16840,7 +17322,7 @@
       <c r="A57" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57">
         <v>300</v>
       </c>
     </row>
@@ -16848,7 +17330,7 @@
       <c r="A58" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58">
         <v>274.41800000000001</v>
       </c>
     </row>
@@ -16856,7 +17338,7 @@
       <c r="A59" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59">
         <v>574.41800000000001</v>
       </c>
     </row>
@@ -16864,7 +17346,7 @@
       <c r="A60" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60">
         <v>100</v>
       </c>
     </row>
@@ -16872,7 +17354,7 @@
       <c r="A61" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B61">
         <v>200</v>
       </c>
     </row>
@@ -16880,7 +17362,7 @@
       <c r="A62" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62">
         <v>374.41800000000001</v>
       </c>
     </row>
@@ -16888,7 +17370,7 @@
       <c r="A63" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63">
         <v>774.41800000000001</v>
       </c>
     </row>
@@ -16896,7 +17378,7 @@
       <c r="A64" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B64">
         <v>300</v>
       </c>
     </row>
@@ -16904,7 +17386,7 @@
       <c r="A65" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65">
         <v>700</v>
       </c>
     </row>
@@ -16912,7 +17394,7 @@
       <c r="A66" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66">
         <v>500</v>
       </c>
     </row>
@@ -16920,7 +17402,7 @@
       <c r="A67" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67">
         <v>200</v>
       </c>
     </row>
@@ -16928,7 +17410,7 @@
       <c r="A68" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B68">
         <v>700</v>
       </c>
     </row>
@@ -16936,7 +17418,7 @@
       <c r="A69" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69">
         <v>300</v>
       </c>
     </row>
@@ -16944,7 +17426,7 @@
       <c r="A70" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B70" s="9">
+      <c r="B70">
         <v>400</v>
       </c>
     </row>
@@ -16952,7 +17434,7 @@
       <c r="A71" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B71" s="9">
+      <c r="B71">
         <v>600</v>
       </c>
     </row>
@@ -16960,7 +17442,7 @@
       <c r="A72" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B72" s="9">
+      <c r="B72">
         <v>200</v>
       </c>
     </row>
@@ -16968,7 +17450,7 @@
       <c r="A73" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B73" s="9">
+      <c r="B73">
         <v>400</v>
       </c>
     </row>
@@ -16976,7 +17458,7 @@
       <c r="A74" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B74" s="9">
+      <c r="B74">
         <v>500</v>
       </c>
     </row>
@@ -16984,7 +17466,7 @@
       <c r="A75" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B75" s="9">
+      <c r="B75">
         <v>200</v>
       </c>
     </row>
@@ -16992,7 +17474,7 @@
       <c r="A76" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B76" s="9">
+      <c r="B76">
         <v>100</v>
       </c>
     </row>
@@ -17000,7 +17482,7 @@
       <c r="A77" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B77" s="9">
+      <c r="B77">
         <v>700</v>
       </c>
     </row>
@@ -17008,7 +17490,7 @@
       <c r="A78" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B78" s="9">
+      <c r="B78">
         <v>200</v>
       </c>
     </row>
@@ -17016,7 +17498,7 @@
       <c r="A79" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B79" s="9">
+      <c r="B79">
         <v>100</v>
       </c>
     </row>
@@ -17024,7 +17506,7 @@
       <c r="A80" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B80" s="9">
+      <c r="B80">
         <v>200</v>
       </c>
     </row>
@@ -17032,7 +17514,7 @@
       <c r="A81" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B81" s="9">
+      <c r="B81">
         <v>1274.4180000000001</v>
       </c>
     </row>
@@ -17040,7 +17522,7 @@
       <c r="A82" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B82" s="9">
+      <c r="B82">
         <v>274.41800000000001</v>
       </c>
     </row>
@@ -17048,7 +17530,7 @@
       <c r="A83" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B83" s="9">
+      <c r="B83">
         <v>574.41800000000001</v>
       </c>
     </row>
@@ -17056,7 +17538,7 @@
       <c r="A84" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="9">
+      <c r="B84">
         <v>100</v>
       </c>
     </row>
@@ -17064,7 +17546,7 @@
       <c r="A85" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B85" s="9">
+      <c r="B85">
         <v>100</v>
       </c>
     </row>
@@ -17072,7 +17554,7 @@
       <c r="A86" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B86" s="9">
+      <c r="B86">
         <v>274.41800000000001</v>
       </c>
     </row>
@@ -17080,7 +17562,7 @@
       <c r="A87" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B87" s="9">
+      <c r="B87">
         <v>274.41800000000001</v>
       </c>
     </row>
@@ -17088,7 +17570,7 @@
       <c r="A88" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="9">
+      <c r="B88">
         <v>100</v>
       </c>
     </row>
@@ -17096,7 +17578,7 @@
       <c r="A89" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B89" s="9">
+      <c r="B89">
         <v>700</v>
       </c>
     </row>
@@ -17104,7 +17586,7 @@
       <c r="A90" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B90" s="9">
+      <c r="B90">
         <v>200</v>
       </c>
     </row>
@@ -17112,7 +17594,7 @@
       <c r="A91" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B91" s="9">
+      <c r="B91">
         <v>200</v>
       </c>
     </row>
@@ -17120,7 +17602,7 @@
       <c r="A92" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B92" s="9">
+      <c r="B92">
         <v>300</v>
       </c>
     </row>
@@ -17128,7 +17610,7 @@
       <c r="A93" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B93" s="9">
+      <c r="B93">
         <v>574.41800000000001</v>
       </c>
     </row>
@@ -17136,7 +17618,7 @@
       <c r="A94" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B94" s="9">
+      <c r="B94">
         <v>300</v>
       </c>
     </row>
@@ -17144,7 +17626,7 @@
       <c r="A95" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B95" s="9">
+      <c r="B95">
         <v>300</v>
       </c>
     </row>
@@ -17152,7 +17634,7 @@
       <c r="A96" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B96" s="9">
+      <c r="B96">
         <v>200</v>
       </c>
     </row>
@@ -17160,7 +17642,7 @@
       <c r="A97" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B97" s="9">
+      <c r="B97">
         <v>300</v>
       </c>
     </row>
@@ -17168,7 +17650,7 @@
       <c r="A98" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B98" s="9">
+      <c r="B98">
         <v>800</v>
       </c>
     </row>
@@ -17176,7 +17658,7 @@
       <c r="A99" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B99" s="9">
+      <c r="B99">
         <v>274.41800000000001</v>
       </c>
     </row>
@@ -17184,7 +17666,7 @@
       <c r="A100" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B100" s="9">
+      <c r="B100">
         <v>100</v>
       </c>
     </row>
@@ -17192,7 +17674,7 @@
       <c r="A101" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B101" s="9">
+      <c r="B101">
         <v>274.41800000000001</v>
       </c>
     </row>
@@ -17200,7 +17682,7 @@
       <c r="A102" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B102" s="9">
+      <c r="B102">
         <v>1000</v>
       </c>
     </row>
@@ -17208,7 +17690,7 @@
       <c r="A103" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B103" s="9">
+      <c r="B103">
         <v>500</v>
       </c>
     </row>
@@ -17216,7 +17698,7 @@
       <c r="A104" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B104" s="9">
+      <c r="B104">
         <v>200</v>
       </c>
     </row>
@@ -17224,7 +17706,7 @@
       <c r="A105" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B105" s="9">
+      <c r="B105">
         <v>100</v>
       </c>
     </row>
@@ -17232,7 +17714,7 @@
       <c r="A106" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B106" s="9">
+      <c r="B106">
         <v>100</v>
       </c>
     </row>
@@ -17240,7 +17722,7 @@
       <c r="A107" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B107" s="9">
+      <c r="B107">
         <v>200</v>
       </c>
     </row>
@@ -17248,7 +17730,7 @@
       <c r="A108" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B108" s="9">
+      <c r="B108">
         <v>500</v>
       </c>
     </row>
@@ -17256,7 +17738,7 @@
       <c r="A109" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B109" s="9">
+      <c r="B109">
         <v>200</v>
       </c>
     </row>
@@ -17264,7 +17746,7 @@
       <c r="A110" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B110" s="9">
+      <c r="B110">
         <v>300</v>
       </c>
     </row>
@@ -17272,7 +17754,7 @@
       <c r="A111" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B111" s="9">
+      <c r="B111">
         <v>200</v>
       </c>
     </row>
@@ -17280,7 +17762,7 @@
       <c r="A112" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B112" s="9">
+      <c r="B112">
         <v>574.41800000000001</v>
       </c>
     </row>
@@ -17288,7 +17770,7 @@
       <c r="A113" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B113" s="9">
+      <c r="B113">
         <v>200</v>
       </c>
     </row>
@@ -17296,7 +17778,7 @@
       <c r="A114" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B114" s="9">
+      <c r="B114">
         <v>274.41800000000001</v>
       </c>
     </row>
@@ -17304,7 +17786,7 @@
       <c r="A115" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B115" s="9">
+      <c r="B115">
         <v>100</v>
       </c>
     </row>
@@ -17312,7 +17794,7 @@
       <c r="A116" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B116" s="9">
+      <c r="B116">
         <v>500</v>
       </c>
     </row>
@@ -17320,7 +17802,7 @@
       <c r="A117" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B117" s="9">
+      <c r="B117">
         <v>374.41800000000001</v>
       </c>
     </row>
@@ -17328,7 +17810,7 @@
       <c r="A118" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B118" s="9">
+      <c r="B118">
         <v>374.41800000000001</v>
       </c>
     </row>
@@ -17336,7 +17818,7 @@
       <c r="A119" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B119" s="9">
+      <c r="B119">
         <v>200</v>
       </c>
     </row>
@@ -17344,7 +17826,7 @@
       <c r="A120" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B120" s="9">
+      <c r="B120">
         <v>500</v>
       </c>
     </row>
@@ -17352,7 +17834,7 @@
       <c r="A121" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B121" s="9">
+      <c r="B121">
         <v>574.41800000000001</v>
       </c>
     </row>
@@ -17360,7 +17842,7 @@
       <c r="A122" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B122" s="9">
+      <c r="B122">
         <v>500</v>
       </c>
     </row>
@@ -17368,7 +17850,7 @@
       <c r="A123" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B123" s="9">
+      <c r="B123">
         <v>300</v>
       </c>
     </row>
@@ -17376,7 +17858,7 @@
       <c r="A124" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B124" s="9">
+      <c r="B124">
         <v>200</v>
       </c>
     </row>
@@ -17384,7 +17866,7 @@
       <c r="A125" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B125" s="9">
+      <c r="B125">
         <v>374.41800000000001</v>
       </c>
     </row>
@@ -17392,7 +17874,7 @@
       <c r="A126" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B126" s="9">
+      <c r="B126">
         <v>100</v>
       </c>
     </row>
@@ -17400,7 +17882,7 @@
       <c r="A127" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B127" s="9">
+      <c r="B127">
         <v>100</v>
       </c>
     </row>
@@ -17408,7 +17890,7 @@
       <c r="A128" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B128" s="9">
+      <c r="B128">
         <v>500</v>
       </c>
     </row>
@@ -17416,7 +17898,7 @@
       <c r="A129" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B129" s="9">
+      <c r="B129">
         <v>100</v>
       </c>
     </row>
@@ -17424,7 +17906,7 @@
       <c r="A130" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B130" s="9">
+      <c r="B130">
         <v>200</v>
       </c>
     </row>
@@ -17432,7 +17914,7 @@
       <c r="A131" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B131" s="9">
+      <c r="B131">
         <v>400</v>
       </c>
     </row>
@@ -17440,7 +17922,7 @@
       <c r="A132" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B132" s="9">
+      <c r="B132">
         <v>100</v>
       </c>
     </row>
@@ -17448,7 +17930,7 @@
       <c r="A133" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B133" s="9">
+      <c r="B133">
         <v>300</v>
       </c>
     </row>
@@ -17456,7 +17938,7 @@
       <c r="A134" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B134" s="9">
+      <c r="B134">
         <v>200</v>
       </c>
     </row>
@@ -17464,7 +17946,7 @@
       <c r="A135" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B135" s="9">
+      <c r="B135">
         <v>500</v>
       </c>
     </row>
@@ -17472,7 +17954,7 @@
       <c r="A136" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B136" s="9">
+      <c r="B136">
         <v>200</v>
       </c>
     </row>
@@ -17480,7 +17962,7 @@
       <c r="A137" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B137" s="9">
+      <c r="B137">
         <v>300</v>
       </c>
     </row>
@@ -17488,7 +17970,7 @@
       <c r="A138" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B138" s="9">
+      <c r="B138">
         <v>274.41800000000001</v>
       </c>
     </row>
@@ -17496,7 +17978,7 @@
       <c r="A139" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B139" s="9">
+      <c r="B139">
         <v>774.41800000000001</v>
       </c>
     </row>
@@ -17504,7 +17986,7 @@
       <c r="A140" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B140" s="9">
+      <c r="B140">
         <v>500</v>
       </c>
     </row>
@@ -17512,7 +17994,7 @@
       <c r="A141" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B141" s="9">
+      <c r="B141">
         <v>800</v>
       </c>
     </row>
@@ -17520,7 +18002,7 @@
       <c r="A142" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B142" s="9">
+      <c r="B142">
         <v>500</v>
       </c>
     </row>
@@ -17528,7 +18010,7 @@
       <c r="A143" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B143" s="9">
+      <c r="B143">
         <v>1274.4180000000001</v>
       </c>
     </row>
@@ -17536,7 +18018,7 @@
       <c r="A144" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B144" s="9">
+      <c r="B144">
         <v>274.41800000000001</v>
       </c>
     </row>
@@ -17544,7 +18026,7 @@
       <c r="A145" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B145" s="9">
+      <c r="B145">
         <v>100</v>
       </c>
     </row>
@@ -17552,7 +18034,7 @@
       <c r="A146" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B146" s="9">
+      <c r="B146">
         <v>51402.301999999989</v>
       </c>
     </row>
@@ -17566,13 +18048,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{760CED1E-5B2F-4B06-AB3A-B5C9C951708D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
